--- a/biology/Zoologie/Galerella_ochracea/Galerella_ochracea.xlsx
+++ b/biology/Zoologie/Galerella_ochracea/Galerella_ochracea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mangouste de Somalie
 La Mangouste d'Abyssinie aussi nommé Mangouste de Somalie (Galerella ochracea) est une espèce de mangouste du genre Galerella découverte par Gray en 1849.
@@ -512,7 +524,9 @@
           <t>Dimensions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Longueur de la tête jusqu'au corps : 23 à 32 cm
 Longueur de la queue : 21 à 27 cm
@@ -546,7 +560,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Nord-Est de l'Éthiopie,Somalie et Nord-Est du Kenya.
 </t>
@@ -577,7 +593,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Animal diurne, solitaire, en couple ou en famille.
 </t>
